--- a/data/trans_camb/P0901-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,88</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>15,76</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 17,6</t>
+          <t>8,23; 17,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 21,69</t>
+          <t>13,47; 21,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,41</t>
+          <t>12,82; 18,75</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>70,42%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,56; 113,7</t>
+          <t>42,4; 111,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,0; 87,54</t>
+          <t>46,72; 85,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,43; 90,85</t>
+          <t>54,34; 87,67</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,26</t>
+          <t>1,99; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,52</t>
+          <t>-0,88; 5,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,05</t>
+          <t>1,85; 6,16</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>114,9%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>54,3%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,33; 175,36</t>
+          <t>33,35; 149,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 72,13</t>
+          <t>-6,42; 60,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 99,06</t>
+          <t>23,66; 85,31</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,14 +1089,14 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,51</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
           <t>1,15</t>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,27</t>
+          <t>0,85; 6,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,6</t>
+          <t>-3,24; 3,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,2</t>
+          <t>-0,26; 4,17</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>31,46%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 193,22</t>
+          <t>14,1; 194,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 51,7</t>
+          <t>-28,2; 51,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 76,69</t>
+          <t>-3,68; 75,93</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>3,32</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,63</t>
+          <t>0,92; 5,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,58</t>
+          <t>-0,97; 4,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,78</t>
+          <t>1,15; 4,81</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>26,04%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,56; 78,84</t>
+          <t>10,9; 68,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 36,32</t>
+          <t>-5,48; 29,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,29; 47,34</t>
+          <t>9,04; 39,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P0901-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,75</t>
+          <t>3,93; 11,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,9</t>
+          <t>2,03; 9,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 17,14</t>
+          <t>8,36; 17,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 14,51</t>
+          <t>7,46; 14,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,46</t>
+          <t>6,76; 14,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,17</t>
+          <t>13,59; 20,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,22</t>
+          <t>6,89; 12,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,44</t>
+          <t>5,69; 11,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 18,75</t>
+          <t>13,12; 18,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,24; 75,57</t>
+          <t>20,45; 68,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 64,61</t>
+          <t>10,47; 60,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,4; 111,11</t>
+          <t>44,04; 110,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 58,35</t>
+          <t>26,61; 59,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 57,83</t>
+          <t>24,22; 61,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,72; 85,14</t>
+          <t>47,28; 83,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,61; 57,6</t>
+          <t>29,03; 56,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 52,9</t>
+          <t>24,57; 54,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,34; 87,67</t>
+          <t>55,6; 87,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,16</t>
+          <t>-0,14; 3,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,45</t>
+          <t>0,2; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,27</t>
+          <t>1,51; 7,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,92</t>
+          <t>-0,67; 3,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,33</t>
+          <t>0,93; 5,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,66</t>
+          <t>-1,41; 5,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,83</t>
+          <t>0,07; 2,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,75</t>
+          <t>1,04; 3,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,16</t>
+          <t>1,67; 6,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 65,57</t>
+          <t>-2,28; 63,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 74,21</t>
+          <t>2,77; 66,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 149,08</t>
+          <t>25,59; 143,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 42,58</t>
+          <t>-6,03; 40,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 57,82</t>
+          <t>8,35; 61,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 60,91</t>
+          <t>-9,02; 62,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 40,18</t>
+          <t>0,98; 41,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 52,18</t>
+          <t>12,52; 54,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,66; 85,31</t>
+          <t>20,44; 82,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 5,02</t>
+          <t>-1,08; 5,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,92</t>
+          <t>-1,93; 3,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,19</t>
+          <t>0,32; 6,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,6</t>
+          <t>-5,02; 2,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,85</t>
+          <t>-2,82; 4,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,54</t>
+          <t>-3,11; 3,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,88</t>
+          <t>-1,75; 2,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,28</t>
+          <t>-1,27; 3,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,17</t>
+          <t>0,09; 4,11</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 144,61</t>
+          <t>-21,94; 152,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 120,89</t>
+          <t>-31,94; 121,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,1; 194,89</t>
+          <t>2,86; 190,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 35,87</t>
+          <t>-43,65; 39,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 70,86</t>
+          <t>-25,62; 69,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 51,0</t>
+          <t>-27,22; 54,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 54,17</t>
+          <t>-21,69; 55,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 59,22</t>
+          <t>-17,4; 64,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 75,93</t>
+          <t>1,31; 75,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,5</t>
+          <t>1,45; 4,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,9</t>
+          <t>-0,06; 2,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,79</t>
+          <t>1,21; 5,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,44</t>
+          <t>2,71; 6,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,96</t>
+          <t>1,26; 4,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,68</t>
+          <t>-0,81; 4,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,95</t>
+          <t>2,57; 5,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,46</t>
+          <t>1,11; 3,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,81</t>
+          <t>1,18; 4,81</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,28; 55,13</t>
+          <t>15,0; 55,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 34,39</t>
+          <t>-0,56; 35,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,9; 68,57</t>
+          <t>13,4; 69,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,55; 41,84</t>
+          <t>15,71; 41,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 31,99</t>
+          <t>7,39; 31,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 29,81</t>
+          <t>-4,05; 29,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,65; 40,52</t>
+          <t>19,18; 41,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,87; 28,4</t>
+          <t>8,42; 29,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,04; 39,09</t>
+          <t>9,11; 38,92</t>
         </is>
       </c>
     </row>
